--- a/QaLegends/src/test/resources/TestData.xlsx
+++ b/QaLegends/src/test/resources/TestData.xlsx
@@ -4,24 +4,42 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
-    <sheet name="RegisterPage" sheetId="3" r:id="rId3"/>
+    <sheet name="RegisterPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ResetPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>userLogin details</t>
+  </si>
+  <si>
+    <t>kavyas</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Kavya@gmail.com</t>
   </si>
   <si>
     <t>abcf88@gmail.com</t>
@@ -34,13 +52,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,13 +85,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -383,6 +422,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>54321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -390,25 +442,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>54321</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -416,20 +534,5 @@
     <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QaLegends/src/test/resources/TestData.xlsx
+++ b/QaLegends/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>tester</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,6 +503,14 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/QaLegends/src/test/resources/TestData.xlsx
+++ b/QaLegends/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -52,13 +49,40 @@
   </si>
   <si>
     <t>tester</t>
+  </si>
+  <si>
+    <t>Selected Contact</t>
+  </si>
+  <si>
+    <t>Tom - (CO0030)</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>invalid email</t>
+  </si>
+  <si>
+    <t>valid email</t>
+  </si>
+  <si>
+    <t>tfdggbfn6@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid msg</t>
+  </si>
+  <si>
+    <t>valid msg</t>
+  </si>
+  <si>
+    <t>We have e-mailed your password reset link!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +96,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF231918"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +128,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -109,6 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,7 +438,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +448,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>123456</v>
@@ -425,17 +456,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>54321</v>
@@ -448,48 +479,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>54321</v>
@@ -506,10 +538,18 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -517,36 +557,62 @@
     <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="63.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/QaLegends/src/test/resources/TestData.xlsx
+++ b/QaLegends/src/test/resources/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="RegisterPage" sheetId="2" r:id="rId2"/>
     <sheet name="ResetPage" sheetId="3" r:id="rId3"/>
+    <sheet name="RolesPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>We have e-mailed your password reset link!</t>
+  </si>
+  <si>
+    <t>jeenaabraham</t>
   </si>
 </sst>
 </file>
@@ -128,7 +132,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -140,6 +144,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -615,4 +622,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QaLegends/src/test/resources/TestData.xlsx
+++ b/QaLegends/src/test/resources/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9749A9-3C8E-4AF8-90C5-7F4CD6630F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -80,13 +81,16 @@
   </si>
   <si>
     <t>jeenaabraham</t>
+  </si>
+  <si>
+    <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +158,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -200,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +244,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +296,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,19 +489,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -461,22 +509,27 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>54321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -485,48 +538,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -536,14 +589,14 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -551,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -561,7 +614,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -569,20 +622,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.140625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -590,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -598,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -606,7 +659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -616,8 +669,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -625,24 +678,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>123456789</v>
       </c>

--- a/QaLegends/src/test/resources/TestData.xlsx
+++ b/QaLegends/src/test/resources/TestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9749A9-3C8E-4AF8-90C5-7F4CD6630F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C5FD64-4CF3-4231-AB73-75D357F6EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="RegisterPage" sheetId="2" r:id="rId2"/>
     <sheet name="ResetPage" sheetId="3" r:id="rId3"/>
-    <sheet name="RolesPage" sheetId="4" r:id="rId4"/>
+    <sheet name="ProductsPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
+  </si>
+  <si>
+    <t>kavya77@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                            Some of the columns are missing. Please, use latest CSV file template.
+                                    </t>
   </si>
 </sst>
 </file>
@@ -136,7 +144,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -150,6 +158,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -170,9 +182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,9 +222,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,26 +257,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,26 +292,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +510,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{F2C7EC3C-B9BF-4EC5-941E-14B899394008}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -679,15 +670,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -700,6 +691,11 @@
         <v>123456789</v>
       </c>
     </row>
+    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QaLegends/src/test/resources/TestData.xlsx
+++ b/QaLegends/src/test/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C5FD64-4CF3-4231-AB73-75D357F6EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9220E3A-BB09-4E03-B1D2-DADE5C7C9F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>These credentials do not match our records.</t>
   </si>
@@ -92,6 +92,12 @@
     <t xml:space="preserve">
                                             Some of the columns are missing. Please, use latest CSV file template.
                                     </t>
+  </si>
+  <si>
+    <t>User deleted successfully</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,9 +521,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +607,11 @@
       </c>
       <c r="B8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
